--- a/failure.xlsx
+++ b/failure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/051867489d37b9f6/Research project/Mix Local SRMA/mixlocal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8C084D5-899E-4DE6-8F29-493B0AE6A5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{A8C084D5-899E-4DE6-8F29-493B0AE6A5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61EC45FF-00AA-4EF7-BE67-FAFC7A08B535}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{9444B605-1312-430D-BAD7-89BD544A3EEF}"/>
+    <workbookView xWindow="14544" yWindow="4668" windowWidth="24168" windowHeight="14388" xr2:uid="{9444B605-1312-430D-BAD7-89BD544A3EEF}"/>
   </bookViews>
   <sheets>
     <sheet name="failure" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>study</t>
   </si>
@@ -75,6 +75,21 @@
   </si>
   <si>
     <t>Aguilera</t>
+  </si>
+  <si>
+    <t>Bobik</t>
+  </si>
+  <si>
+    <t>Freitag</t>
+  </si>
+  <si>
+    <t>Chen</t>
+  </si>
+  <si>
+    <t>Almasi</t>
+  </si>
+  <si>
+    <t>author</t>
   </si>
 </sst>
 </file>
@@ -127,6 +142,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,172 +465,299 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2871D66C-9ED3-4209-9415-986B9A9D94EC}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>B2 &amp; " " &amp; C2</f>
+        <v>Sripriya 2023</v>
+      </c>
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2023</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
-      </c>
-      <c r="E2">
-        <v>21</v>
       </c>
       <c r="F2">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="G2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>B3 &amp; " " &amp; C3</f>
+        <v>Pongraweewan 2016</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2016</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>46</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>B4 &amp; " " &amp; C4</f>
+        <v>Laur 2012</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2012</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>31</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>B5 &amp; " " &amp; C5</f>
+        <v>Cuvillon 2009</v>
+      </c>
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2009</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>40</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>B6 &amp; " " &amp; C6</f>
+        <v>Ozmen 2013</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2013</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>2</v>
-      </c>
-      <c r="E6">
-        <v>40</v>
       </c>
       <c r="F6">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="G6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>B7 &amp; " " &amp; C7</f>
+        <v>Laigle 2012</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2012</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="G7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>B8 &amp; " " &amp; C8</f>
+        <v>Aguilera 2024</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2024</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>1</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>2</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
       </c>
       <c r="F8">
         <v>20</v>
+      </c>
+      <c r="G8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>B9 &amp; " " &amp; C9</f>
+        <v>Bobik 2020</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>41</v>
+      </c>
+      <c r="G9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>B10 &amp; " " &amp; C10</f>
+        <v>Freitag 2006</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>2006</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>B11 &amp; " " &amp; C11</f>
+        <v>Chen 2013</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>2013</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>B12 &amp; " " &amp; C12</f>
+        <v>Almasi 2020</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>14</v>
+      </c>
+      <c r="G12">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
